--- a/biology/Botanique/Ormocarpum_sennoides/Ormocarpum_sennoides.xlsx
+++ b/biology/Botanique/Ormocarpum_sennoides/Ormocarpum_sennoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ormocarpum sennoides est une espèce de plantes de la famille des Fabaceae. Elle n'est plus considérée comme endémique à la Nouvelle-Calédonie car mise en synonymie avec l'espèce Ormocarpum orientale, largement répandu. Elle est très courante par endroits sur l'île (Pouembout, Poya), et plus rare aux alentours de Nouméa. L'arbuste pousse principalement dans les forêts sèches, mais on peut aussi le rencontrer dans les forêts légèrement humides. Il est consommé par les cerfs et le bétail.
 </t>
@@ -511,7 +523,9 @@
           <t>Aspect et forme générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces arbres sont peu larges, très élancés et possèdent un branchage et un feuillage qui forment une petite voûte. Ils mesurent au maximum 5-6 mètres et font le plus souvent 3 à 4 mètres de haut. L'écorce est de couleur beige clair, grumeleuse, voire couverte de pustules, elle est toujours très bosselée. Les feuilles sont composées et ressemblent aux feuilles de flamboyants. Elles sont de couleur vert clair, un peu glauque. Chaque foliole fait 6 mm de long sur 3 mm de large.
 </t>
@@ -542,7 +556,9 @@
           <t>Fleurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs sont de couleur rose pâle, avec des veinules d’un rose plus foncé. Elles sont assez grandes (2 à 3 cm de long), ont les pétales soudées et se remarquent facilement.
 </t>
@@ -573,7 +589,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La floraison est abondante, mais jamais spectaculaire. Les fruits sont des gousses (comme le flamboyant ou le haricot vert), de couleur marron à maturité. Lors de la floraison, les feuilles tombent et se remettent à pousser lorsque les fleurs fanent.
 </t>
